--- a/biology/Zoologie/Clitellata/Clitellata.xlsx
+++ b/biology/Zoologie/Clitellata/Clitellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clitellates (Clitellata) constituent une classe de l'embranchement des vers annélides, contenant la plupart des espèces de vers de la terre ferme. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces annélides ont la particularité de posséder un clitellum, qui est un renflement de certains métamères (ou anneaux) de l'animal sécrétant un cocon muqueux dans lequel sont déposés les œufs. Ce mucus sert de protection hydrique et de réserve nutritive (une sorte d'exo-vitellus) aux embryons.
 Les clitellates sont fondamentalement les Annélides adaptés au milieu terrestre (Oligochètes (lombric) et Achètes (sangsue)). Ils ont une fécondation interne et un développement direct (sans stade larvaire contrairement aux Annélides Polychètes).
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
